--- a/Exercise 1/Results/50x50.xlsx
+++ b/Exercise 1/Results/50x50.xlsx
@@ -15,9 +15,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -400,6 +397,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -410,17 +418,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1584,132 +1581,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="S4" t="str">
-            <v>Calculated Speedup</v>
-          </cell>
-          <cell r="T4" t="str">
-            <v>Amdahl's Law</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="S5">
-            <v>1</v>
-          </cell>
-          <cell r="T5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="S6">
-            <v>1.9444931140617008</v>
-          </cell>
-          <cell r="T6">
-            <v>1.8348623853211012</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="S7">
-            <v>2.6232530195127031</v>
-          </cell>
-          <cell r="T7">
-            <v>2.5423728813559325</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="S8">
-            <v>3.0852570646362958</v>
-          </cell>
-          <cell r="T8">
-            <v>3.1496062992125982</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="S9">
-            <v>3.5803307924262859</v>
-          </cell>
-          <cell r="T9">
-            <v>3.6764705882352948</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="S10">
-            <v>4.1379339397064232</v>
-          </cell>
-          <cell r="T10">
-            <v>4.1379310344827589</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="S11">
-            <v>4.5180421276635316</v>
-          </cell>
-          <cell r="T11">
-            <v>4.5454545454545459</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="S12">
-            <v>4.9189513224137915</v>
-          </cell>
-          <cell r="T12">
-            <v>4.9079754601226995</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="S13">
-            <v>5.0358379505385802</v>
-          </cell>
-          <cell r="T13">
-            <v>5.232558139534885</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="S14">
-            <v>5.1109987989517709</v>
-          </cell>
-          <cell r="T14">
-            <v>5.5248618784530397</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="S15">
-            <v>4.9199464527216596</v>
-          </cell>
-          <cell r="T15">
-            <v>5.7894736842105274</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="S16">
-            <v>5.2492867504918399</v>
-          </cell>
-          <cell r="T16">
-            <v>6.0301507537688455</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="S17">
-            <v>5.2300819714972668</v>
-          </cell>
-          <cell r="T17">
-            <v>6.2500000000000009</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -1997,42 +1868,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="1.35">
       <c r="A3" s="1" t="s">
@@ -2136,7 +2007,7 @@
       <c r="T4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="25" t="s">
+      <c r="V4" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2194,7 +2065,7 @@
         <f>Q5/1000000000</f>
         <v>5.4705200000000002E-4</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="22">
         <f>$Q$5/Q5</f>
         <v>1</v>
       </c>
@@ -2202,7 +2073,7 @@
         <f>1/((1-$V$5)+$V$5/$P5)</f>
         <v>1</v>
       </c>
-      <c r="V5" s="27">
+      <c r="V5" s="23">
         <v>-0.2</v>
       </c>
     </row>
@@ -2260,7 +2131,7 @@
         <f t="shared" ref="R6:R17" si="0">Q6/1000000000</f>
         <v>5.7032800000000005E-4</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="24">
         <f t="shared" ref="S6:S17" si="1">$Q$5/Q6</f>
         <v>0.95918839685233759</v>
       </c>
@@ -2323,7 +2194,7 @@
         <f t="shared" si="0"/>
         <v>4.4656999999999997E-4</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="24">
         <f t="shared" si="1"/>
         <v>1.2250083973397228</v>
       </c>
@@ -2386,7 +2257,7 @@
         <f t="shared" si="0"/>
         <v>5.2771800000000005E-4</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="24">
         <f t="shared" si="1"/>
         <v>1.0366369917266418</v>
       </c>
@@ -2449,7 +2320,7 @@
         <f t="shared" si="0"/>
         <v>4.3877599999999999E-4</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="24">
         <f t="shared" si="1"/>
         <v>1.2467682826772659</v>
       </c>
@@ -2512,7 +2383,7 @@
         <f t="shared" si="0"/>
         <v>5.3729199999999998E-4</v>
       </c>
-      <c r="S10" s="28">
+      <c r="S10" s="24">
         <f t="shared" si="1"/>
         <v>1.0181651690328537</v>
       </c>
@@ -2575,7 +2446,7 @@
         <f t="shared" si="0"/>
         <v>6.4711499999999997E-4</v>
       </c>
-      <c r="S11" s="28">
+      <c r="S11" s="24">
         <f t="shared" si="1"/>
         <v>0.8453706064609845</v>
       </c>
@@ -2638,7 +2509,7 @@
         <f t="shared" si="0"/>
         <v>5.1909299999999998E-4</v>
       </c>
-      <c r="S12" s="28">
+      <c r="S12" s="24">
         <f t="shared" si="1"/>
         <v>1.053861254149064</v>
       </c>
@@ -2701,7 +2572,7 @@
         <f t="shared" si="0"/>
         <v>6.16729E-4</v>
       </c>
-      <c r="S13" s="28">
+      <c r="S13" s="24">
         <f t="shared" si="1"/>
         <v>0.88702169023995958</v>
       </c>
@@ -2764,7 +2635,7 @@
         <f t="shared" si="0"/>
         <v>7.6413200000000005E-4</v>
       </c>
-      <c r="S14" s="28">
+      <c r="S14" s="24">
         <f t="shared" si="1"/>
         <v>0.71591295744714267</v>
       </c>
@@ -2827,7 +2698,7 @@
         <f t="shared" si="0"/>
         <v>6.9612700000000005E-4</v>
       </c>
-      <c r="S15" s="28">
+      <c r="S15" s="24">
         <f t="shared" si="1"/>
         <v>0.7858508576739589</v>
       </c>
@@ -2890,7 +2761,7 @@
         <f t="shared" si="0"/>
         <v>7.6654200000000005E-4</v>
       </c>
-      <c r="S16" s="28">
+      <c r="S16" s="24">
         <f t="shared" si="1"/>
         <v>0.71366213462536954</v>
       </c>
@@ -2953,7 +2824,7 @@
         <f t="shared" si="0"/>
         <v>9.1673700000000004E-4</v>
       </c>
-      <c r="S17" s="29">
+      <c r="S17" s="25">
         <f t="shared" si="1"/>
         <v>0.59673821390431503</v>
       </c>
